--- a/dati/2025/input/MEDIA.xlsx
+++ b/dati/2025/input/MEDIA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="quotidiani x tiratura" sheetId="1" state="visible" r:id="rId3"/>
@@ -16,9 +16,6 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'quotidiani x tiratura'!$A$1:$D$51</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="192">
   <si>
     <t xml:space="preserve">TESTATA - Direttore / direttrice</t>
   </si>
@@ -456,9 +453,6 @@
     <t xml:space="preserve">Bresciaoggi</t>
   </si>
   <si>
-    <t xml:space="preserve">FONTE</t>
-  </si>
-  <si>
     <t xml:space="preserve">TESTATA</t>
   </si>
   <si>
@@ -552,9 +546,6 @@
     <t xml:space="preserve">AGENZIA</t>
   </si>
   <si>
-    <t xml:space="preserve">COUNTA of S</t>
-  </si>
-  <si>
     <t xml:space="preserve">ANSA</t>
   </si>
   <si>
@@ -576,9 +567,6 @@
     <t xml:space="preserve">Lofano</t>
   </si>
   <si>
-    <t xml:space="preserve">Total Result</t>
-  </si>
-  <si>
     <t xml:space="preserve">Askanews</t>
   </si>
   <si>
@@ -613,9 +601,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lautone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fonte</t>
   </si>
 </sst>
 </file>
@@ -625,7 +610,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -671,14 +656,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -688,7 +665,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -701,62 +678,6 @@
       <right/>
       <top/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -785,74 +706,42 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -864,12 +753,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Value" xfId="20"/>
-    <cellStyle name="Pivot Table Field" xfId="21"/>
-    <cellStyle name="Pivot Table Category" xfId="22"/>
-    <cellStyle name="Pivot Table Title" xfId="23"/>
-    <cellStyle name="Pivot Table Result" xfId="24"/>
-    <cellStyle name="Pivot Table Corner" xfId="25"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Field" xfId="22"/>
+    <cellStyle name="Pivot Table Result" xfId="23"/>
+    <cellStyle name="Pivot Table Title" xfId="24"/>
+    <cellStyle name="Pivot Table Value" xfId="25"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -893,127 +782,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="7" createdVersion="3">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D8" sheet="Agenzie Stampa"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="AGENZIA" numFmtId="0">
-      <sharedItems count="7">
-        <s v="Adnkronos"/>
-        <s v="AGI - Agenzia Giornalistica Italia"/>
-        <s v="ANSA"/>
-        <s v="Askanews"/>
-        <s v="Inter press service"/>
-        <s v="Italpress"/>
-        <s v="LaPresse"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nome" numFmtId="0">
-      <sharedItems count="7">
-        <s v="Alessia "/>
-        <s v="Davide"/>
-        <s v="Farhana"/>
-        <s v="Gaspare"/>
-        <s v="Gianni "/>
-        <s v="Luigi"/>
-        <s v="Rita "/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Cognome" numFmtId="0">
-      <sharedItems count="7">
-        <s v="Borsellino"/>
-        <s v="Contu"/>
-        <s v="Desario"/>
-        <s v="Haque Rahman"/>
-        <s v="Lautone"/>
-        <s v="Lofano"/>
-        <s v="Todini"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="S" numFmtId="0">
-      <sharedItems count="2">
-        <s v="F"/>
-        <s v="M"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
-  <r>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Agenzie Stampa" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" showDrill="1" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="F2:G4" firstHeaderRow="0" firstDataRow="0" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField compact="0" showAll="0" outline="0"/>
-    <pivotField compact="0" showAll="0" outline="0"/>
-    <pivotField compact="0" showAll="0" outline="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" showAll="0" outline="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <dataFields count="1">
-    <dataField name="COUNTA of S" fld="3" subtotal="count" numFmtId="164"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1193,736 +961,731 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048542" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1048576" activeCellId="0" sqref="A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="s">
-        <v>142</v>
+      <c r="D51" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1932,9 +1695,6 @@
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="A53" r:id="rId1" display="FONTE"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1942,7 +1702,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1959,160 +1719,160 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="1" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2132,20 +1892,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="XEE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1048576" activeCellId="0" sqref="E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="12.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2156,138 +1917,106 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="B4" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A10" r:id="rId1" display="fonte"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
